--- a/results/CNN Models/full_dataset/AlexNet/result_for_AlexNet.xlsx
+++ b/results/CNN Models/full_dataset/AlexNet/result_for_AlexNet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9768339768339769</v>
+        <v>0.9844961240310077</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98828125</v>
+        <v>0.9921875</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9322493224932249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.943359375</v>
+        <v>0.9828571428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9489194499017681</v>
+        <v>0.9568845618915159</v>
       </c>
       <c r="E3" t="n">
-        <v>512</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8125</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9855491329479769</v>
+        <v>0.9927325581395349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9970760233918129</v>
+        <v>0.9970802919708029</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9912790697674418</v>
+        <v>0.9949016751638747</v>
       </c>
       <c r="E5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8927875243664717</v>
+        <v>0.8917322834645669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9327902240325866</v>
+        <v>0.949685534591195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9123505976095617</v>
+        <v>0.9197969543147209</v>
       </c>
       <c r="E7" t="n">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.9263157894736842</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8369565217391305</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9005847953216374</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="E10" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.9352750809061489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7840236686390533</v>
+        <v>0.857566765578635</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8372827804107424</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E11" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9323653037829576</v>
+        <v>0.9498973305954825</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9323653037829576</v>
+        <v>0.9498973305954825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9323653037829576</v>
+        <v>0.9498973305954825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9323653037829576</v>
+        <v>0.9498973305954825</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8827174664875743</v>
+        <v>0.9527777886041285</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8696853730075379</v>
+        <v>0.9098301302501696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8612157204056621</v>
+        <v>0.9260358598484336</v>
       </c>
       <c r="E13" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9319447065590922</v>
+        <v>0.9513078184650389</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9323653037829576</v>
+        <v>0.9498973305954825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9291416277580491</v>
+        <v>0.9489563662252825</v>
       </c>
       <c r="E14" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>
